--- a/public/DataUpload/users-headers-1.xlsx
+++ b/public/DataUpload/users-headers-1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t xml:space="preserve">first_name</t>
   </si>
@@ -34,58 +34,34 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">acronym</t>
-  </si>
-  <si>
     <t xml:space="preserve">Scot Labadie</t>
   </si>
   <si>
     <t xml:space="preserve">nienow.jane@example.com</t>
   </si>
   <si>
-    <t xml:space="preserve">area_a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enrique Kassulke</t>
+    <t xml:space="preserve">Enrique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kassulke</t>
   </si>
   <si>
     <t xml:space="preserve">mandy.hodkiewicz@example.org</t>
   </si>
   <si>
-    <t xml:space="preserve">area_b</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marian Altenwerth I</t>
   </si>
   <si>
     <t xml:space="preserve">naomi15@example.net</t>
   </si>
   <si>
-    <t xml:space="preserve">area_c</t>
-  </si>
-  <si>
     <t xml:space="preserve">Filiberto </t>
   </si>
   <si>
+    <t xml:space="preserve">Mandibula</t>
+  </si>
+  <si>
     <t xml:space="preserve">pleannon@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jovany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jacobi.rodrigo@example.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garfield Ryan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">london36@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Sipes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mazie24@example.com</t>
   </si>
   <si>
     <t xml:space="preserve">Leora Haag II</t>
@@ -173,7 +149,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -184,10 +160,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -211,10 +183,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -222,6 +194,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="30.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="15881" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -237,144 +210,75 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
